--- a/Prac1/Times.xlsx
+++ b/Prac1/Times.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cameronclark/Documents/UCT/EEE3096S/pracs/Prac2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cameronclark/Documents/UCT/EEE3096S/pracs/Prac1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7084F9-EC20-7C42-84FA-72E589E1BB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F8082B-5E16-714F-A1C3-7BF18A63877E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{339FA320-FCC4-9944-9159-A8D83CFCD7FC}"/>
+    <workbookView xWindow="-28800" yWindow="1940" windowWidth="28800" windowHeight="18000" xr2:uid="{339FA320-FCC4-9944-9159-A8D83CFCD7FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Cameron" sheetId="1" r:id="rId1"/>
     <sheet name="Kian" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -162,15 +162,15 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268D49FA-3D22-BD48-9F64-AB5F6F41773D}">
   <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="237" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="237" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -504,37 +504,37 @@
       <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="1" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1" t="s">
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1" t="s">
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
       <c r="X1" t="s">
         <v>23</v>
       </c>
@@ -567,46 +567,46 @@
       <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="X2" t="s">
@@ -988,71 +988,71 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <f>AVERAGE(B3:B7)</f>
+        <f t="shared" ref="B8:I8" si="0">AVERAGE(B3:B7)</f>
         <v>394.2</v>
       </c>
       <c r="C8">
-        <f>AVERAGE(C3:C7)</f>
+        <f t="shared" si="0"/>
         <v>9.4079999999999995</v>
       </c>
       <c r="D8">
-        <f>AVERAGE(D3:D7)</f>
+        <f t="shared" si="0"/>
         <v>20.497220000000002</v>
       </c>
       <c r="E8">
-        <f>AVERAGE(E3:E7)</f>
+        <f t="shared" si="0"/>
         <v>26.698</v>
       </c>
       <c r="F8">
-        <f>AVERAGE(F3:F7)</f>
+        <f t="shared" si="0"/>
         <v>11.272</v>
       </c>
       <c r="G8">
-        <f>AVERAGE(G3:G7)</f>
+        <f t="shared" si="0"/>
         <v>8.702</v>
       </c>
       <c r="H8">
-        <f>AVERAGE(H3:H7)</f>
+        <f t="shared" si="0"/>
         <v>12.646000000000001</v>
       </c>
       <c r="I8">
-        <f>AVERAGE(I3:I7)</f>
+        <f t="shared" si="0"/>
         <v>15.996</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:P8" si="0">AVERAGE(J3:J7)</f>
+        <f t="shared" ref="J8:P8" si="1">AVERAGE(J3:J7)</f>
         <v>24.15</v>
       </c>
       <c r="K8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.015999999999998</v>
       </c>
       <c r="L8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.755999999999997</v>
       </c>
       <c r="M8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24.945999999999998</v>
       </c>
       <c r="N8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.674000000000001</v>
       </c>
       <c r="O8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.348000000000003</v>
       </c>
       <c r="P8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.007999999999999</v>
       </c>
       <c r="Q8">
-        <f t="shared" ref="Q8" si="1">AVERAGE(Q3:Q7)</f>
+        <f t="shared" ref="Q8" si="2">AVERAGE(Q3:Q7)</f>
         <v>21.456</v>
       </c>
       <c r="R8">
-        <f t="shared" ref="R8" si="2">AVERAGE(R3:R7)</f>
+        <f t="shared" ref="R8" si="3">AVERAGE(R3:R7)</f>
         <v>24.218</v>
       </c>
       <c r="S8">
@@ -1064,15 +1064,15 @@
         <v>10.01</v>
       </c>
       <c r="U8">
-        <f t="shared" ref="U8:W8" si="3">AVERAGE(U3:U7)</f>
+        <f t="shared" ref="U8:W8" si="4">AVERAGE(U3:U7)</f>
         <v>37.26</v>
       </c>
       <c r="V8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18.312000000000001</v>
       </c>
       <c r="W8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>85.960000000000008</v>
       </c>
       <c r="X8">
